--- a/datos/ICE_2018.xlsx
+++ b/datos/ICE_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaescoto/Dropbox/2020/CursoR-posgrado-pol/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EC48B9-8C31-0945-B9D9-748EACE6DB74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24243CE3-7372-B44A-B1F4-51206B8B8408}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26200" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{5C544803-2047-4944-AD3C-70ADC68242BB}"/>
+    <workbookView xWindow="23560" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{5C544803-2047-4944-AD3C-70ADC68242BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de indicadores" sheetId="2" r:id="rId1"/>
@@ -2801,27 +2801,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2858,8 +2837,53 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2872,9 +2896,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2913,27 +2934,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6233,7 +6233,7 @@
       <c r="A2" s="62">
         <v>1</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="85" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="63">
@@ -6277,7 +6277,7 @@
       <c r="A3" s="62">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="63">
         <v>1</v>
       </c>
@@ -6318,7 +6318,7 @@
       <c r="A4" s="62">
         <v>3</v>
       </c>
-      <c r="B4" s="93"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="63">
         <v>0.5</v>
       </c>
@@ -6359,7 +6359,7 @@
       <c r="A5" s="62">
         <v>4</v>
       </c>
-      <c r="B5" s="93"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="63">
         <v>1</v>
       </c>
@@ -6400,7 +6400,7 @@
       <c r="A6" s="62">
         <v>5</v>
       </c>
-      <c r="B6" s="93"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="63">
         <v>0.1</v>
       </c>
@@ -6441,7 +6441,7 @@
       <c r="A7" s="62">
         <v>6</v>
       </c>
-      <c r="B7" s="93"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="63">
         <v>0.5</v>
       </c>
@@ -6482,7 +6482,7 @@
       <c r="A8" s="62">
         <v>7</v>
       </c>
-      <c r="B8" s="93"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="63">
         <v>0.5</v>
       </c>
@@ -6523,7 +6523,7 @@
       <c r="A9" s="62">
         <v>8</v>
       </c>
-      <c r="B9" s="93"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="63">
         <v>0.5</v>
       </c>
@@ -6564,7 +6564,7 @@
       <c r="A10" s="62">
         <v>9</v>
       </c>
-      <c r="B10" s="93"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="63">
         <v>0.5</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="A11" s="62">
         <v>10</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="87" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="63">
@@ -6648,7 +6648,7 @@
       <c r="A12" s="62">
         <v>11</v>
       </c>
-      <c r="B12" s="94"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="63">
         <v>1</v>
       </c>
@@ -6689,7 +6689,7 @@
       <c r="A13" s="62">
         <v>12</v>
       </c>
-      <c r="B13" s="94"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="63">
         <v>0.1</v>
       </c>
@@ -6730,7 +6730,7 @@
       <c r="A14" s="62">
         <v>13</v>
       </c>
-      <c r="B14" s="94"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="63">
         <v>0.5</v>
       </c>
@@ -6771,7 +6771,7 @@
       <c r="A15" s="62">
         <v>14</v>
       </c>
-      <c r="B15" s="94"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="63">
         <v>0.1</v>
       </c>
@@ -6812,7 +6812,7 @@
       <c r="A16" s="62">
         <v>15</v>
       </c>
-      <c r="B16" s="94"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="63">
         <v>0.5</v>
       </c>
@@ -6853,7 +6853,7 @@
       <c r="A17" s="62">
         <v>16</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="63">
         <v>0.5</v>
       </c>
@@ -6894,7 +6894,7 @@
       <c r="A18" s="62">
         <v>17</v>
       </c>
-      <c r="B18" s="94"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="63">
         <v>1</v>
       </c>
@@ -6935,7 +6935,7 @@
       <c r="A19" s="62">
         <v>18</v>
       </c>
-      <c r="B19" s="94"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="63">
         <v>0.5</v>
       </c>
@@ -6976,7 +6976,7 @@
       <c r="A20" s="62">
         <v>19</v>
       </c>
-      <c r="B20" s="94"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="63">
         <v>0.5</v>
       </c>
@@ -7017,7 +7017,7 @@
       <c r="A21" s="62">
         <v>20</v>
       </c>
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="88" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="63">
@@ -7060,7 +7060,7 @@
       <c r="A22" s="62">
         <v>21</v>
       </c>
-      <c r="B22" s="95"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="63">
         <v>0.5</v>
       </c>
@@ -7101,7 +7101,7 @@
       <c r="A23" s="62">
         <v>22</v>
       </c>
-      <c r="B23" s="95"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="63">
         <v>0.5</v>
       </c>
@@ -7142,7 +7142,7 @@
       <c r="A24" s="62">
         <v>23</v>
       </c>
-      <c r="B24" s="95"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="63">
         <v>0.5</v>
       </c>
@@ -7183,7 +7183,7 @@
       <c r="A25" s="62">
         <v>24</v>
       </c>
-      <c r="B25" s="95"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="63">
         <v>0.5</v>
       </c>
@@ -7224,7 +7224,7 @@
       <c r="A26" s="62">
         <v>25</v>
       </c>
-      <c r="B26" s="95"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="63">
         <v>1</v>
       </c>
@@ -7265,7 +7265,7 @@
       <c r="A27" s="62">
         <v>26</v>
       </c>
-      <c r="B27" s="95"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="63">
         <v>1</v>
       </c>
@@ -7306,7 +7306,7 @@
       <c r="A28" s="62">
         <v>27</v>
       </c>
-      <c r="B28" s="95"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="63">
         <v>1</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="A29" s="62">
         <v>28</v>
       </c>
-      <c r="B29" s="95"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="63">
         <v>0.5</v>
       </c>
@@ -7388,7 +7388,7 @@
       <c r="A30" s="62">
         <v>29</v>
       </c>
-      <c r="B30" s="95"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="63">
         <v>1</v>
       </c>
@@ -7429,7 +7429,7 @@
       <c r="A31" s="62">
         <v>30</v>
       </c>
-      <c r="B31" s="95"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="63">
         <v>1</v>
       </c>
@@ -7470,7 +7470,7 @@
       <c r="A32" s="62">
         <v>31</v>
       </c>
-      <c r="B32" s="95"/>
+      <c r="B32" s="88"/>
       <c r="C32" s="63">
         <v>1</v>
       </c>
@@ -7511,7 +7511,7 @@
       <c r="A33" s="62">
         <v>32</v>
       </c>
-      <c r="B33" s="95"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="63">
         <v>1</v>
       </c>
@@ -7552,7 +7552,7 @@
       <c r="A34" s="62">
         <v>33</v>
       </c>
-      <c r="B34" s="95"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="63">
         <v>0.5</v>
       </c>
@@ -7593,7 +7593,7 @@
       <c r="A35" s="62">
         <v>34</v>
       </c>
-      <c r="B35" s="95"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="63">
         <v>1</v>
       </c>
@@ -7634,7 +7634,7 @@
       <c r="A36" s="62">
         <v>35</v>
       </c>
-      <c r="B36" s="95"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="63">
         <v>0.5</v>
       </c>
@@ -7675,7 +7675,7 @@
       <c r="A37" s="62">
         <v>36</v>
       </c>
-      <c r="B37" s="95"/>
+      <c r="B37" s="88"/>
       <c r="C37" s="63">
         <v>0.5</v>
       </c>
@@ -7716,7 +7716,7 @@
       <c r="A38" s="62">
         <v>37</v>
       </c>
-      <c r="B38" s="95"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="63">
         <v>0.5</v>
       </c>
@@ -7757,7 +7757,7 @@
       <c r="A39" s="62">
         <v>38</v>
       </c>
-      <c r="B39" s="95"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="63">
         <v>0.5</v>
       </c>
@@ -7797,7 +7797,7 @@
       <c r="A40" s="62">
         <v>39</v>
       </c>
-      <c r="B40" s="95"/>
+      <c r="B40" s="88"/>
       <c r="C40" s="63">
         <v>1</v>
       </c>
@@ -7838,7 +7838,7 @@
       <c r="A41" s="62">
         <v>40</v>
       </c>
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="89" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="63">
@@ -7881,7 +7881,7 @@
       <c r="A42" s="62">
         <v>41</v>
       </c>
-      <c r="B42" s="96"/>
+      <c r="B42" s="89"/>
       <c r="C42" s="63">
         <v>0.5</v>
       </c>
@@ -7922,7 +7922,7 @@
       <c r="A43" s="62">
         <v>42</v>
       </c>
-      <c r="B43" s="96"/>
+      <c r="B43" s="89"/>
       <c r="C43" s="63">
         <v>0.5</v>
       </c>
@@ -7963,7 +7963,7 @@
       <c r="A44" s="62">
         <v>43</v>
       </c>
-      <c r="B44" s="96"/>
+      <c r="B44" s="89"/>
       <c r="C44" s="63">
         <v>0.5</v>
       </c>
@@ -8004,7 +8004,7 @@
       <c r="A45" s="62">
         <v>44</v>
       </c>
-      <c r="B45" s="96"/>
+      <c r="B45" s="89"/>
       <c r="C45" s="63">
         <v>0.5</v>
       </c>
@@ -8045,7 +8045,7 @@
       <c r="A46" s="62">
         <v>45</v>
       </c>
-      <c r="B46" s="96"/>
+      <c r="B46" s="89"/>
       <c r="C46" s="63">
         <v>0.1</v>
       </c>
@@ -8086,7 +8086,7 @@
       <c r="A47" s="62">
         <v>46</v>
       </c>
-      <c r="B47" s="96"/>
+      <c r="B47" s="89"/>
       <c r="C47" s="63">
         <v>1</v>
       </c>
@@ -8127,7 +8127,7 @@
       <c r="A48" s="62">
         <v>47</v>
       </c>
-      <c r="B48" s="96"/>
+      <c r="B48" s="89"/>
       <c r="C48" s="63">
         <v>0.5</v>
       </c>
@@ -8168,7 +8168,7 @@
       <c r="A49" s="62">
         <v>48</v>
       </c>
-      <c r="B49" s="96"/>
+      <c r="B49" s="89"/>
       <c r="C49" s="63">
         <v>0.5</v>
       </c>
@@ -8209,7 +8209,7 @@
       <c r="A50" s="62">
         <v>49</v>
       </c>
-      <c r="B50" s="96"/>
+      <c r="B50" s="89"/>
       <c r="C50" s="63">
         <v>1</v>
       </c>
@@ -8250,7 +8250,7 @@
       <c r="A51" s="62">
         <v>50</v>
       </c>
-      <c r="B51" s="97" t="s">
+      <c r="B51" s="90" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="63">
@@ -8293,7 +8293,7 @@
       <c r="A52" s="62">
         <v>51</v>
       </c>
-      <c r="B52" s="97"/>
+      <c r="B52" s="90"/>
       <c r="C52" s="63">
         <v>1</v>
       </c>
@@ -8334,7 +8334,7 @@
       <c r="A53" s="62">
         <v>52</v>
       </c>
-      <c r="B53" s="97"/>
+      <c r="B53" s="90"/>
       <c r="C53" s="63">
         <v>1</v>
       </c>
@@ -8375,7 +8375,7 @@
       <c r="A54" s="62">
         <v>53</v>
       </c>
-      <c r="B54" s="97"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="63">
         <v>0.5</v>
       </c>
@@ -8416,7 +8416,7 @@
       <c r="A55" s="62">
         <v>54</v>
       </c>
-      <c r="B55" s="97"/>
+      <c r="B55" s="90"/>
       <c r="C55" s="63">
         <v>0.5</v>
       </c>
@@ -8457,7 +8457,7 @@
       <c r="A56" s="62">
         <v>55</v>
       </c>
-      <c r="B56" s="97"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="63">
         <v>1</v>
       </c>
@@ -8498,7 +8498,7 @@
       <c r="A57" s="62">
         <v>56</v>
       </c>
-      <c r="B57" s="97"/>
+      <c r="B57" s="90"/>
       <c r="C57" s="63">
         <v>1</v>
       </c>
@@ -8539,7 +8539,7 @@
       <c r="A58" s="62">
         <v>57</v>
       </c>
-      <c r="B58" s="97"/>
+      <c r="B58" s="90"/>
       <c r="C58" s="63">
         <v>0.1</v>
       </c>
@@ -8580,7 +8580,7 @@
       <c r="A59" s="62">
         <v>58</v>
       </c>
-      <c r="B59" s="97"/>
+      <c r="B59" s="90"/>
       <c r="C59" s="63">
         <v>1</v>
       </c>
@@ -8621,7 +8621,7 @@
       <c r="A60" s="62">
         <v>59</v>
       </c>
-      <c r="B60" s="98" t="s">
+      <c r="B60" s="91" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="63">
@@ -8664,7 +8664,7 @@
       <c r="A61" s="62">
         <v>60</v>
       </c>
-      <c r="B61" s="99"/>
+      <c r="B61" s="92"/>
       <c r="C61" s="63">
         <v>0.5</v>
       </c>
@@ -8705,7 +8705,7 @@
       <c r="A62" s="62">
         <v>61</v>
       </c>
-      <c r="B62" s="99"/>
+      <c r="B62" s="92"/>
       <c r="C62" s="63">
         <v>0.5</v>
       </c>
@@ -8746,7 +8746,7 @@
       <c r="A63" s="62">
         <v>62</v>
       </c>
-      <c r="B63" s="99"/>
+      <c r="B63" s="92"/>
       <c r="C63" s="63">
         <v>0.5</v>
       </c>
@@ -8787,7 +8787,7 @@
       <c r="A64" s="62">
         <v>63</v>
       </c>
-      <c r="B64" s="99"/>
+      <c r="B64" s="92"/>
       <c r="C64" s="63">
         <v>0.5</v>
       </c>
@@ -8828,7 +8828,7 @@
       <c r="A65" s="62">
         <v>64</v>
       </c>
-      <c r="B65" s="99"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="63">
         <v>1</v>
       </c>
@@ -8869,7 +8869,7 @@
       <c r="A66" s="62">
         <v>65</v>
       </c>
-      <c r="B66" s="99"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="63">
         <v>1</v>
       </c>
@@ -8910,7 +8910,7 @@
       <c r="A67" s="62">
         <v>66</v>
       </c>
-      <c r="B67" s="100"/>
+      <c r="B67" s="93"/>
       <c r="C67" s="63">
         <v>0.5</v>
       </c>
@@ -8951,7 +8951,7 @@
       <c r="A68" s="62">
         <v>67</v>
       </c>
-      <c r="B68" s="82" t="s">
+      <c r="B68" s="94" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="63">
@@ -8994,7 +8994,7 @@
       <c r="A69" s="62">
         <v>68</v>
       </c>
-      <c r="B69" s="82"/>
+      <c r="B69" s="94"/>
       <c r="C69" s="63">
         <v>0.5</v>
       </c>
@@ -9035,7 +9035,7 @@
       <c r="A70" s="62">
         <v>69</v>
       </c>
-      <c r="B70" s="82"/>
+      <c r="B70" s="94"/>
       <c r="C70" s="63">
         <v>1</v>
       </c>
@@ -9076,7 +9076,7 @@
       <c r="A71" s="62">
         <v>70</v>
       </c>
-      <c r="B71" s="82"/>
+      <c r="B71" s="94"/>
       <c r="C71" s="63">
         <v>0.1</v>
       </c>
@@ -9117,7 +9117,7 @@
       <c r="A72" s="62">
         <v>71</v>
       </c>
-      <c r="B72" s="82"/>
+      <c r="B72" s="94"/>
       <c r="C72" s="63">
         <v>0.5</v>
       </c>
@@ -9158,7 +9158,7 @@
       <c r="A73" s="62">
         <v>72</v>
       </c>
-      <c r="B73" s="82"/>
+      <c r="B73" s="94"/>
       <c r="C73" s="63">
         <v>0.5</v>
       </c>
@@ -9199,7 +9199,7 @@
       <c r="A74" s="62">
         <v>73</v>
       </c>
-      <c r="B74" s="82"/>
+      <c r="B74" s="94"/>
       <c r="C74" s="63">
         <v>0.5</v>
       </c>
@@ -9240,7 +9240,7 @@
       <c r="A75" s="62">
         <v>74</v>
       </c>
-      <c r="B75" s="82"/>
+      <c r="B75" s="94"/>
       <c r="C75" s="63">
         <v>0.5</v>
       </c>
@@ -9281,7 +9281,7 @@
       <c r="A76" s="62">
         <v>75</v>
       </c>
-      <c r="B76" s="82"/>
+      <c r="B76" s="94"/>
       <c r="C76" s="63">
         <v>0.5</v>
       </c>
@@ -9322,7 +9322,7 @@
       <c r="A77" s="62">
         <v>76</v>
       </c>
-      <c r="B77" s="82"/>
+      <c r="B77" s="94"/>
       <c r="C77" s="63">
         <v>1</v>
       </c>
@@ -9363,7 +9363,7 @@
       <c r="A78" s="62">
         <v>77</v>
       </c>
-      <c r="B78" s="82"/>
+      <c r="B78" s="94"/>
       <c r="C78" s="63">
         <v>1</v>
       </c>
@@ -9404,7 +9404,7 @@
       <c r="A79" s="62">
         <v>78</v>
       </c>
-      <c r="B79" s="83" t="s">
+      <c r="B79" s="95" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="63">
@@ -9447,7 +9447,7 @@
       <c r="A80" s="62">
         <v>79</v>
       </c>
-      <c r="B80" s="83"/>
+      <c r="B80" s="95"/>
       <c r="C80" s="63">
         <v>1</v>
       </c>
@@ -9488,7 +9488,7 @@
       <c r="A81" s="62">
         <v>80</v>
       </c>
-      <c r="B81" s="83"/>
+      <c r="B81" s="95"/>
       <c r="C81" s="63">
         <v>0.5</v>
       </c>
@@ -9529,7 +9529,7 @@
       <c r="A82" s="62">
         <v>81</v>
       </c>
-      <c r="B82" s="83"/>
+      <c r="B82" s="95"/>
       <c r="C82" s="63">
         <v>0.5</v>
       </c>
@@ -9570,7 +9570,7 @@
       <c r="A83" s="62">
         <v>82</v>
       </c>
-      <c r="B83" s="83"/>
+      <c r="B83" s="95"/>
       <c r="C83" s="63">
         <v>0.5</v>
       </c>
@@ -9611,7 +9611,7 @@
       <c r="A84" s="62">
         <v>83</v>
       </c>
-      <c r="B84" s="83"/>
+      <c r="B84" s="95"/>
       <c r="C84" s="63">
         <v>1</v>
       </c>
@@ -9652,7 +9652,7 @@
       <c r="A85" s="62">
         <v>84</v>
       </c>
-      <c r="B85" s="83"/>
+      <c r="B85" s="95"/>
       <c r="C85" s="63">
         <v>0.5</v>
       </c>
@@ -9693,7 +9693,7 @@
       <c r="A86" s="62">
         <v>85</v>
       </c>
-      <c r="B86" s="83"/>
+      <c r="B86" s="95"/>
       <c r="C86" s="63">
         <v>1</v>
       </c>
@@ -9734,7 +9734,7 @@
       <c r="A87" s="62">
         <v>86</v>
       </c>
-      <c r="B87" s="83"/>
+      <c r="B87" s="95"/>
       <c r="C87" s="63">
         <v>0.5</v>
       </c>
@@ -9775,7 +9775,7 @@
       <c r="A88" s="62">
         <v>87</v>
       </c>
-      <c r="B88" s="83"/>
+      <c r="B88" s="95"/>
       <c r="C88" s="63">
         <v>0.5</v>
       </c>
@@ -9816,7 +9816,7 @@
       <c r="A89" s="62">
         <v>88</v>
       </c>
-      <c r="B89" s="83"/>
+      <c r="B89" s="95"/>
       <c r="C89" s="63">
         <v>1</v>
       </c>
@@ -9857,7 +9857,7 @@
       <c r="A90" s="62">
         <v>89</v>
       </c>
-      <c r="B90" s="84" t="s">
+      <c r="B90" s="96" t="s">
         <v>10</v>
       </c>
       <c r="C90" s="63">
@@ -9900,7 +9900,7 @@
       <c r="A91" s="62">
         <v>90</v>
       </c>
-      <c r="B91" s="85"/>
+      <c r="B91" s="97"/>
       <c r="C91" s="63">
         <v>0.1</v>
       </c>
@@ -9941,7 +9941,7 @@
       <c r="A92" s="62">
         <v>91</v>
       </c>
-      <c r="B92" s="85"/>
+      <c r="B92" s="97"/>
       <c r="C92" s="63">
         <v>0.5</v>
       </c>
@@ -9982,7 +9982,7 @@
       <c r="A93" s="62">
         <v>92</v>
       </c>
-      <c r="B93" s="86"/>
+      <c r="B93" s="98"/>
       <c r="C93" s="63">
         <v>1</v>
       </c>
@@ -10023,7 +10023,7 @@
       <c r="A94" s="62">
         <v>93</v>
       </c>
-      <c r="B94" s="87" t="s">
+      <c r="B94" s="99" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="63">
@@ -10066,7 +10066,7 @@
       <c r="A95" s="62">
         <v>94</v>
       </c>
-      <c r="B95" s="87"/>
+      <c r="B95" s="99"/>
       <c r="C95" s="63">
         <v>1</v>
       </c>
@@ -10107,7 +10107,7 @@
       <c r="A96" s="62">
         <v>95</v>
       </c>
-      <c r="B96" s="87"/>
+      <c r="B96" s="99"/>
       <c r="C96" s="63">
         <v>0.5</v>
       </c>
@@ -10148,7 +10148,7 @@
       <c r="A97" s="62">
         <v>96</v>
       </c>
-      <c r="B97" s="87"/>
+      <c r="B97" s="99"/>
       <c r="C97" s="63">
         <v>1</v>
       </c>
@@ -10189,7 +10189,7 @@
       <c r="A98" s="62">
         <v>97</v>
       </c>
-      <c r="B98" s="87"/>
+      <c r="B98" s="99"/>
       <c r="C98" s="63">
         <v>0.5</v>
       </c>
@@ -10230,7 +10230,7 @@
       <c r="A99" s="62">
         <v>98</v>
       </c>
-      <c r="B99" s="88" t="s">
+      <c r="B99" s="100" t="s">
         <v>12</v>
       </c>
       <c r="C99" s="63">
@@ -10273,7 +10273,7 @@
       <c r="A100" s="62">
         <v>99</v>
       </c>
-      <c r="B100" s="88"/>
+      <c r="B100" s="100"/>
       <c r="C100" s="63">
         <v>0.5</v>
       </c>
@@ -10314,7 +10314,7 @@
       <c r="A101" s="62">
         <v>100</v>
       </c>
-      <c r="B101" s="89" t="s">
+      <c r="B101" s="82" t="s">
         <v>518</v>
       </c>
       <c r="C101" s="74" t="s">
@@ -10357,7 +10357,7 @@
       <c r="A102" s="62">
         <v>101</v>
       </c>
-      <c r="B102" s="90"/>
+      <c r="B102" s="83"/>
       <c r="C102" s="74" t="s">
         <v>126</v>
       </c>
@@ -10398,7 +10398,7 @@
       <c r="A103" s="62">
         <v>102</v>
       </c>
-      <c r="B103" s="90"/>
+      <c r="B103" s="83"/>
       <c r="C103" s="74" t="s">
         <v>126</v>
       </c>
@@ -10439,7 +10439,7 @@
       <c r="A104" s="62">
         <v>103</v>
       </c>
-      <c r="B104" s="91"/>
+      <c r="B104" s="84"/>
       <c r="C104" s="74" t="s">
         <v>126</v>
       </c>
@@ -11550,52 +11550,52 @@
       <c r="A2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="120" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="121" t="s">
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="124" t="s">
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="126"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="108"/>
+      <c r="AL2" s="108"/>
+      <c r="AM2" s="108"/>
+      <c r="AN2" s="108"/>
+      <c r="AO2" s="109"/>
       <c r="AP2" s="127" t="s">
         <v>5</v>
       </c>
@@ -11608,84 +11608,84 @@
       <c r="AW2" s="127"/>
       <c r="AX2" s="127"/>
       <c r="AY2" s="127"/>
-      <c r="AZ2" s="107" t="s">
+      <c r="AZ2" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="BA2" s="108"/>
-      <c r="BB2" s="108"/>
-      <c r="BC2" s="108"/>
-      <c r="BD2" s="108"/>
-      <c r="BE2" s="108"/>
-      <c r="BF2" s="108"/>
-      <c r="BG2" s="108"/>
-      <c r="BH2" s="109"/>
-      <c r="BI2" s="110" t="s">
+      <c r="BA2" s="115"/>
+      <c r="BB2" s="115"/>
+      <c r="BC2" s="115"/>
+      <c r="BD2" s="115"/>
+      <c r="BE2" s="115"/>
+      <c r="BF2" s="115"/>
+      <c r="BG2" s="115"/>
+      <c r="BH2" s="116"/>
+      <c r="BI2" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="BJ2" s="111"/>
-      <c r="BK2" s="111"/>
-      <c r="BL2" s="111"/>
-      <c r="BM2" s="111"/>
-      <c r="BN2" s="111"/>
-      <c r="BO2" s="111"/>
-      <c r="BP2" s="112"/>
-      <c r="BQ2" s="113" t="s">
+      <c r="BJ2" s="118"/>
+      <c r="BK2" s="118"/>
+      <c r="BL2" s="118"/>
+      <c r="BM2" s="118"/>
+      <c r="BN2" s="118"/>
+      <c r="BO2" s="118"/>
+      <c r="BP2" s="119"/>
+      <c r="BQ2" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="BR2" s="113"/>
-      <c r="BS2" s="113"/>
-      <c r="BT2" s="113"/>
-      <c r="BU2" s="113"/>
-      <c r="BV2" s="113"/>
-      <c r="BW2" s="113"/>
-      <c r="BX2" s="113"/>
-      <c r="BY2" s="113"/>
-      <c r="BZ2" s="113"/>
-      <c r="CA2" s="113"/>
-      <c r="CB2" s="114" t="s">
+      <c r="BR2" s="120"/>
+      <c r="BS2" s="120"/>
+      <c r="BT2" s="120"/>
+      <c r="BU2" s="120"/>
+      <c r="BV2" s="120"/>
+      <c r="BW2" s="120"/>
+      <c r="BX2" s="120"/>
+      <c r="BY2" s="120"/>
+      <c r="BZ2" s="120"/>
+      <c r="CA2" s="120"/>
+      <c r="CB2" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="CC2" s="114"/>
-      <c r="CD2" s="114"/>
-      <c r="CE2" s="114"/>
-      <c r="CF2" s="114"/>
-      <c r="CG2" s="114"/>
-      <c r="CH2" s="114"/>
-      <c r="CI2" s="114"/>
-      <c r="CJ2" s="114"/>
-      <c r="CK2" s="114"/>
-      <c r="CL2" s="114"/>
-      <c r="CM2" s="115" t="s">
+      <c r="CC2" s="121"/>
+      <c r="CD2" s="121"/>
+      <c r="CE2" s="121"/>
+      <c r="CF2" s="121"/>
+      <c r="CG2" s="121"/>
+      <c r="CH2" s="121"/>
+      <c r="CI2" s="121"/>
+      <c r="CJ2" s="121"/>
+      <c r="CK2" s="121"/>
+      <c r="CL2" s="121"/>
+      <c r="CM2" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="CN2" s="116"/>
-      <c r="CO2" s="116"/>
-      <c r="CP2" s="117"/>
-      <c r="CQ2" s="118" t="s">
+      <c r="CN2" s="123"/>
+      <c r="CO2" s="123"/>
+      <c r="CP2" s="124"/>
+      <c r="CQ2" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="CR2" s="119"/>
-      <c r="CS2" s="119"/>
-      <c r="CT2" s="119"/>
-      <c r="CU2" s="119"/>
+      <c r="CR2" s="126"/>
+      <c r="CS2" s="126"/>
+      <c r="CT2" s="126"/>
+      <c r="CU2" s="126"/>
       <c r="CV2" s="6"/>
-      <c r="CW2" s="102" t="s">
+      <c r="CW2" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="CX2" s="102"/>
+      <c r="CX2" s="110"/>
       <c r="CY2" s="7"/>
-      <c r="CZ2" s="103" t="s">
+      <c r="CZ2" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="DA2" s="104"/>
-      <c r="DB2" s="104"/>
-      <c r="DC2" s="105"/>
+      <c r="DA2" s="112"/>
+      <c r="DB2" s="112"/>
+      <c r="DC2" s="113"/>
     </row>
     <row r="3" spans="1:125" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="106"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="4">
         <f t="array" ref="C3:CU8">TRANSPOSE('[1]Lista de indicadores'!D2:I98)</f>
         <v>0.30203106463448443</v>
@@ -12005,7 +12005,7 @@
       <c r="A4" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="4" t="str">
         <v>No</v>
       </c>
@@ -24375,11 +24375,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="L2:U2"/>
-    <mergeCell ref="V2:AO2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="CW2:CX2"/>
@@ -24395,6 +24390,11 @@
     <mergeCell ref="CM2:CP2"/>
     <mergeCell ref="CQ2:CU2"/>
     <mergeCell ref="AP2:AY2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="V2:AO2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:DC4">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -24414,7 +24414,7 @@
   <dimension ref="A1:DE33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
